--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01448018</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Pilot Study on Efficacy and Tolerance of Intravitreous Injection of Ranibizumab (Lucentis®) in Early-onset Central Retinal Vein Occlusion in Comparison to Hemodilution Using Erythrocytapheresis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>CHIC-3</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02157077</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>A Phase III b, Multicenter Study of the Efficacy and Safety of Aflibercept Switch in Patients With Exudative AMD With Detachment of the Retinal Pigment Epithelium and Previously Treated With Ranibizumab Intravitreal Injection. (ARI2)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ARI2</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -604,32 +619,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02700893</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cerebral NIRS Profiles During Premedication for Neonatal Intubation</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -648,36 +668,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02806830</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evaluation de la gêne Oculaire après Injections intravitréennes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EVAGO</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -696,36 +721,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02899806</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Impact of a Video Explaining Epidural Analgesia in Obstetrics in Terms of Satisfaction, Understanding and Anxiety: A Prospective Randomised Trial</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>VIDEOCLIP</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -744,28 +774,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04318431</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prevalence of SARS -Cov2 Carriage in Asymptomatic and Mildly-symptomatic Children, a Cross-sectional, Prospective, Multicentre, Observational Study in Primary Care.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>COVILLE</t>
         </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -773,7 +805,10 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -792,32 +827,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT04583189</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Evaluation Des Performances du Test Rapide antigénique Covid-19 Ag BSS Chez l'Enfant Symptomatique Dans un Service d'Urgences pédiatriques</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -836,28 +876,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01490580</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Double Blind Randomized Controlled Trial Comparing "Atropine+Propofol" Versus "Atropine+Atracurium+Sufentanil" as a Premedication Prior to Semi-urgent or Elective Endotracheal Intubation of Term and Preterm Newborns</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>PRETTINEO</t>
         </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -865,7 +907,10 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -884,36 +929,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03488758</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Enjoyment of Infant Formulas Based on Cow or Goat Milk Protein</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>CHARLIE</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -932,32 +982,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04776174</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Crossover Comparison of the Efficacy and Tolerance of Telerobotic vs Standard Ultrasound Exam in Children</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -976,36 +1031,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT03939377</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Evaluation of an Osteopathic Procedure in the Management of Pain in Palliative Care Patients in a Mobile Palliative Care Support Team (EMASP): Controlled, Randomized, Single-blind Study</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>OSTEOPAL</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1024,36 +1084,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT03030664</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Randomised Controlled Trial With Two Parallel Arms Testing the Effect of L. Reuteri on Bowel Movements in Children Aged 6 Months to 4 Years</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>BIOWELL</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1072,32 +1137,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03803228</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Comparison of the Cumulative Number of Oocytes Obtained With 2 Controlled Ovarian Hyperstimulations (COH) Within the Same Cycle With FertistartKit® (DUOSTIM) Versus 2 Conventional COH in Poor Ovarian Responders Undergoing IVF. Bistim Study</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1116,36 +1186,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT04068558</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Synchronized Nasal Intermittent Positive Pressure Ventilation Versus Noninvasive Neurally Adjusted Ventilatory Assist Ventilation in Extremely Premature Infants: a Randomized Crossover Trial</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>EASYNNEO</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1164,36 +1239,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT05079139</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Musset's Surgical Technique: Evaluation of Long-term Results (LONGOMUSSET)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>LONGOMUSSET</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1212,36 +1292,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT03895099</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Feasibility and Efficacy of a New Ovarian Stimulation Regimen With RANDom Start, Use of Corifollitropin Alpha and Progestin Protocol for Oocyte donorS</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>RANDOS</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1260,36 +1345,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT03540706</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Impact of the Use of C-reactive Protein in a Micro-method on the Prescription of Antibiotics in General Practitioners Consulting in the Office</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>VIP</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1308,36 +1398,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02884245</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Interest of Estrogen Scheduling Before Ovarian Stimulation With Corifollitropin Alfa in Women Older Than 38 Years Old Undergoing in Vitro Fertilization</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>PRESCORI</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1356,36 +1451,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT04667065</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Evaluation of a Remotely Guided Physical Preparation by a Physical Activity Teacher Adapted With the Help of a Smartwatch Before Bronchial Cancer Surgery</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>PREPACHIR</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01448018</t>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01448018</t>
@@ -647,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,670 +657,430 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
+      <c r="F2" t="s">
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="F3" t="s">
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="I20" t="s">
         <v>80</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -76,54 +76,54 @@
     <t>NCT02700893</t>
   </si>
   <si>
+    <t>NCT02899806</t>
+  </si>
+  <si>
     <t>NCT02806830</t>
   </si>
   <si>
-    <t>NCT02899806</t>
+    <t>NCT01490580</t>
+  </si>
+  <si>
+    <t>NCT04583189</t>
   </si>
   <si>
     <t>NCT04318431</t>
   </si>
   <si>
-    <t>NCT04583189</t>
-  </si>
-  <si>
-    <t>NCT01490580</t>
-  </si>
-  <si>
     <t>NCT03488758</t>
   </si>
   <si>
+    <t>NCT04068558</t>
+  </si>
+  <si>
+    <t>NCT03030664</t>
+  </si>
+  <si>
+    <t>NCT03939377</t>
+  </si>
+  <si>
+    <t>NCT03803228</t>
+  </si>
+  <si>
     <t>NCT04776174</t>
   </si>
   <si>
-    <t>NCT03939377</t>
-  </si>
-  <si>
-    <t>NCT03030664</t>
-  </si>
-  <si>
-    <t>NCT03803228</t>
-  </si>
-  <si>
-    <t>NCT04068558</t>
-  </si>
-  <si>
     <t>NCT05079139</t>
   </si>
   <si>
     <t>NCT03895099</t>
   </si>
   <si>
+    <t>NCT04667065</t>
+  </si>
+  <si>
+    <t>NCT02884245</t>
+  </si>
+  <si>
     <t>NCT03540706</t>
   </si>
   <si>
-    <t>NCT02884245</t>
-  </si>
-  <si>
-    <t>NCT04667065</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -157,97 +157,97 @@
     <t>Cerebral NIRS Profiles During Premedication for Neonatal Intubation</t>
   </si>
   <si>
+    <t>Impact of a Video Explaining Epidural Analgesia in Obstetrics in Terms of Satisfaction, Understanding and Anxiety: A Prospective Randomised Trial</t>
+  </si>
+  <si>
     <t>Evaluation de la gêne Oculaire après Injections intravitréennes</t>
   </si>
   <si>
-    <t>Impact of a Video Explaining Epidural Analgesia in Obstetrics in Terms of Satisfaction, Understanding and Anxiety: A Prospective Randomised Trial</t>
+    <t>Double Blind Randomized Controlled Trial Comparing "Atropine+Propofol" Versus "Atropine+Atracurium+Sufentanil" as a Premedication Prior to Semi-urgent or Elective Endotracheal Intubation of Term and Preterm Newborns</t>
+  </si>
+  <si>
+    <t>Evaluation Des Performances du Test Rapide antigénique Covid-19 Ag BSS Chez l'Enfant Symptomatique Dans un Service d'Urgences pédiatriques</t>
   </si>
   <si>
     <t>Prevalence of SARS -Cov2 Carriage in Asymptomatic and Mildly-symptomatic Children, a Cross-sectional, Prospective, Multicentre, Observational Study in Primary Care.</t>
   </si>
   <si>
-    <t>Evaluation Des Performances du Test Rapide antigénique Covid-19 Ag BSS Chez l'Enfant Symptomatique Dans un Service d'Urgences pédiatriques</t>
-  </si>
-  <si>
-    <t>Double Blind Randomized Controlled Trial Comparing "Atropine+Propofol" Versus "Atropine+Atracurium+Sufentanil" as a Premedication Prior to Semi-urgent or Elective Endotracheal Intubation of Term and Preterm Newborns</t>
-  </si>
-  <si>
     <t>Enjoyment of Infant Formulas Based on Cow or Goat Milk Protein</t>
   </si>
   <si>
+    <t>Synchronized Nasal Intermittent Positive Pressure Ventilation Versus Noninvasive Neurally Adjusted Ventilatory Assist Ventilation in Extremely Premature Infants: a Randomized Crossover Trial</t>
+  </si>
+  <si>
+    <t>Randomised Controlled Trial With Two Parallel Arms Testing the Effect of L. Reuteri on Bowel Movements in Children Aged 6 Months to 4 Years</t>
+  </si>
+  <si>
+    <t>Evaluation of an Osteopathic Procedure in the Management of Pain in Palliative Care Patients in a Mobile Palliative Care Support Team (EMASP): Controlled, Randomized, Single-blind Study</t>
+  </si>
+  <si>
+    <t>Comparison of the Cumulative Number of Oocytes Obtained With 2 Controlled Ovarian Hyperstimulations (COH) Within the Same Cycle With FertistartKit® (DUOSTIM) Versus 2 Conventional COH in Poor Ovarian Responders Undergoing IVF. Bistim Study</t>
+  </si>
+  <si>
     <t>Crossover Comparison of the Efficacy and Tolerance of Telerobotic vs Standard Ultrasound Exam in Children</t>
   </si>
   <si>
-    <t>Evaluation of an Osteopathic Procedure in the Management of Pain in Palliative Care Patients in a Mobile Palliative Care Support Team (EMASP): Controlled, Randomized, Single-blind Study</t>
-  </si>
-  <si>
-    <t>Randomised Controlled Trial With Two Parallel Arms Testing the Effect of L. Reuteri on Bowel Movements in Children Aged 6 Months to 4 Years</t>
-  </si>
-  <si>
-    <t>Comparison of the Cumulative Number of Oocytes Obtained With 2 Controlled Ovarian Hyperstimulations (COH) Within the Same Cycle With FertistartKit® (DUOSTIM) Versus 2 Conventional COH in Poor Ovarian Responders Undergoing IVF. Bistim Study</t>
-  </si>
-  <si>
-    <t>Synchronized Nasal Intermittent Positive Pressure Ventilation Versus Noninvasive Neurally Adjusted Ventilatory Assist Ventilation in Extremely Premature Infants: a Randomized Crossover Trial</t>
-  </si>
-  <si>
     <t>Musset's Surgical Technique: Evaluation of Long-term Results (LONGOMUSSET)</t>
   </si>
   <si>
     <t>Feasibility and Efficacy of a New Ovarian Stimulation Regimen With RANDom Start, Use of Corifollitropin Alpha and Progestin Protocol for Oocyte donorS</t>
   </si>
   <si>
+    <t>Evaluation of a Remotely Guided Physical Preparation by a Physical Activity Teacher Adapted With the Help of a Smartwatch Before Bronchial Cancer Surgery</t>
+  </si>
+  <si>
+    <t>Interest of Estrogen Scheduling Before Ovarian Stimulation With Corifollitropin Alfa in Women Older Than 38 Years Old Undergoing in Vitro Fertilization</t>
+  </si>
+  <si>
     <t>Impact of the Use of C-reactive Protein in a Micro-method on the Prescription of Antibiotics in General Practitioners Consulting in the Office</t>
   </si>
   <si>
-    <t>Interest of Estrogen Scheduling Before Ovarian Stimulation With Corifollitropin Alfa in Women Older Than 38 Years Old Undergoing in Vitro Fertilization</t>
-  </si>
-  <si>
-    <t>Evaluation of a Remotely Guided Physical Preparation by a Physical Activity Teacher Adapted With the Help of a Smartwatch Before Bronchial Cancer Surgery</t>
-  </si>
-  <si>
     <t>CHIC-3</t>
   </si>
   <si>
     <t>ARI2</t>
   </si>
   <si>
+    <t>VIDEOCLIP</t>
+  </si>
+  <si>
     <t>EVAGO</t>
   </si>
   <si>
-    <t>VIDEOCLIP</t>
+    <t>PRETTINEO</t>
   </si>
   <si>
     <t>COVILLE</t>
   </si>
   <si>
-    <t>PRETTINEO</t>
-  </si>
-  <si>
     <t>CHARLIE</t>
   </si>
   <si>
+    <t>EASYNNEO</t>
+  </si>
+  <si>
+    <t>BIOWELL</t>
+  </si>
+  <si>
     <t>OSTEOPAL</t>
   </si>
   <si>
-    <t>BIOWELL</t>
-  </si>
-  <si>
-    <t>EASYNNEO</t>
-  </si>
-  <si>
     <t>LONGOMUSSET</t>
   </si>
   <si>
     <t>RANDOS</t>
   </si>
   <si>
+    <t>PREPACHIR</t>
+  </si>
+  <si>
+    <t>PRESCORI</t>
+  </si>
+  <si>
     <t>VIP</t>
-  </si>
-  <si>
-    <t>PRESCORI</t>
-  </si>
-  <si>
-    <t>PREPACHIR</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -744,7 +744,7 @@
         <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -767,7 +767,7 @@
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -790,7 +790,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -833,7 +833,7 @@
         <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -875,16 +875,19 @@
       <c r="G11" t="s">
         <v>53</v>
       </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -896,18 +899,18 @@
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -919,10 +922,10 @@
         <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -961,9 +964,6 @@
       <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
       <c r="I15" t="s">
         <v>82</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1080,7 +1080,7 @@
         <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
+++ b/publipostage2/04n1nkp35/liste_essais_cliniques_identifies_04n1nkp35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01448018</t>
@@ -76,52 +76,64 @@
     <t>NCT02700893</t>
   </si>
   <si>
+    <t>NCT02806830</t>
+  </si>
+  <si>
     <t>NCT02899806</t>
   </si>
   <si>
-    <t>NCT02806830</t>
+    <t>NCT04583189</t>
+  </si>
+  <si>
+    <t>NCT04318431</t>
   </si>
   <si>
     <t>NCT01490580</t>
   </si>
   <si>
-    <t>NCT04583189</t>
-  </si>
-  <si>
-    <t>NCT04318431</t>
+    <t>NCT04776174</t>
+  </si>
+  <si>
+    <t>NCT03939377</t>
+  </si>
+  <si>
+    <t>NCT03803228</t>
+  </si>
+  <si>
+    <t>NCT04068558</t>
   </si>
   <si>
     <t>NCT03488758</t>
   </si>
   <si>
-    <t>NCT04068558</t>
-  </si>
-  <si>
     <t>NCT03030664</t>
   </si>
   <si>
-    <t>NCT03939377</t>
-  </si>
-  <si>
-    <t>NCT03803228</t>
-  </si>
-  <si>
-    <t>NCT04776174</t>
-  </si>
-  <si>
     <t>NCT05079139</t>
   </si>
   <si>
+    <t>NCT04667065</t>
+  </si>
+  <si>
     <t>NCT03895099</t>
   </si>
   <si>
-    <t>NCT04667065</t>
+    <t>NCT03540706</t>
   </si>
   <si>
     <t>NCT02884245</t>
   </si>
   <si>
-    <t>NCT03540706</t>
+    <t>NCT05092659</t>
+  </si>
+  <si>
+    <t>2013-002869-19</t>
+  </si>
+  <si>
+    <t>2012-004555-36</t>
+  </si>
+  <si>
+    <t>2009-011403-23</t>
   </si>
   <si>
     <t>2013</t>
@@ -148,6 +160,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>Pilot Study on Efficacy and Tolerance of Intravitreous Injection of Ranibizumab (Lucentis®) in Early-onset Central Retinal Vein Occlusion in Comparison to Hemodilution Using Erythrocytapheresis</t>
   </si>
   <si>
@@ -157,52 +172,61 @@
     <t>Cerebral NIRS Profiles During Premedication for Neonatal Intubation</t>
   </si>
   <si>
+    <t>A prospective randomized controlled multicentre trial comparing half-dose photodynamic therapy (PDT) with high-density subthreshold micropulse laser treatment in patients with chronic central serous chorioretinopathy (CSC).</t>
+  </si>
+  <si>
+    <t>Evaluation de la gêne Oculaire après Injections intravitréennes</t>
+  </si>
+  <si>
     <t>Impact of a Video Explaining Epidural Analgesia in Obstetrics in Terms of Satisfaction, Understanding and Anxiety: A Prospective Randomised Trial</t>
   </si>
   <si>
-    <t>Evaluation de la gêne Oculaire après Injections intravitréennes</t>
+    <t>Evaluation Des Performances du Test Rapide antigénique Covid-19 Ag BSS Chez l'Enfant Symptomatique Dans un Service d'Urgences pédiatriques</t>
+  </si>
+  <si>
+    <t>Prevalence of SARS -Cov2 Carriage in Asymptomatic and Mildly-symptomatic Children, a Cross-sectional, Prospective, Multicentre, Observational Study in Primary Care.</t>
   </si>
   <si>
     <t>Double Blind Randomized Controlled Trial Comparing "Atropine+Propofol" Versus "Atropine+Atracurium+Sufentanil" as a Premedication Prior to Semi-urgent or Elective Endotracheal Intubation of Term and Preterm Newborns</t>
   </si>
   <si>
-    <t>Evaluation Des Performances du Test Rapide antigénique Covid-19 Ag BSS Chez l'Enfant Symptomatique Dans un Service d'Urgences pédiatriques</t>
-  </si>
-  <si>
-    <t>Prevalence of SARS -Cov2 Carriage in Asymptomatic and Mildly-symptomatic Children, a Cross-sectional, Prospective, Multicentre, Observational Study in Primary Care.</t>
+    <t>Crossover Comparison of the Efficacy and Tolerance of Telerobotic vs Standard Ultrasound Exam in Children</t>
+  </si>
+  <si>
+    <t>Evaluation of an Osteopathic Procedure in the Management of Pain in Palliative Care Patients in a Mobile Palliative Care Support Team (EMASP): Controlled, Randomized, Single-blind Study</t>
+  </si>
+  <si>
+    <t>Comparison of the Cumulative Number of Oocytes Obtained With 2 Controlled Ovarian Hyperstimulations (COH) Within the Same Cycle With FertistartKit® (DUOSTIM) Versus 2 Conventional COH in Poor Ovarian Responders Undergoing IVF. Bistim Study</t>
+  </si>
+  <si>
+    <t>Synchronized Nasal Intermittent Positive Pressure Ventilation Versus Noninvasive Neurally Adjusted Ventilatory Assist Ventilation in Extremely Premature Infants: a Randomized Crossover Trial</t>
   </si>
   <si>
     <t>Enjoyment of Infant Formulas Based on Cow or Goat Milk Protein</t>
   </si>
   <si>
-    <t>Synchronized Nasal Intermittent Positive Pressure Ventilation Versus Noninvasive Neurally Adjusted Ventilatory Assist Ventilation in Extremely Premature Infants: a Randomized Crossover Trial</t>
-  </si>
-  <si>
     <t>Randomised Controlled Trial With Two Parallel Arms Testing the Effect of L. Reuteri on Bowel Movements in Children Aged 6 Months to 4 Years</t>
   </si>
   <si>
-    <t>Evaluation of an Osteopathic Procedure in the Management of Pain in Palliative Care Patients in a Mobile Palliative Care Support Team (EMASP): Controlled, Randomized, Single-blind Study</t>
-  </si>
-  <si>
-    <t>Comparison of the Cumulative Number of Oocytes Obtained With 2 Controlled Ovarian Hyperstimulations (COH) Within the Same Cycle With FertistartKit® (DUOSTIM) Versus 2 Conventional COH in Poor Ovarian Responders Undergoing IVF. Bistim Study</t>
-  </si>
-  <si>
-    <t>Crossover Comparison of the Efficacy and Tolerance of Telerobotic vs Standard Ultrasound Exam in Children</t>
-  </si>
-  <si>
     <t>Musset's Surgical Technique: Evaluation of Long-term Results (LONGOMUSSET)</t>
   </si>
   <si>
+    <t>Evaluation of a Remotely Guided Physical Preparation by a Physical Activity Teacher Adapted With the Help of a Smartwatch Before Bronchial Cancer Surgery</t>
+  </si>
+  <si>
     <t>Feasibility and Efficacy of a New Ovarian Stimulation Regimen With RANDom Start, Use of Corifollitropin Alpha and Progestin Protocol for Oocyte donorS</t>
   </si>
   <si>
-    <t>Evaluation of a Remotely Guided Physical Preparation by a Physical Activity Teacher Adapted With the Help of a Smartwatch Before Bronchial Cancer Surgery</t>
+    <t>Impact of the Use of C-reactive Protein in a Micro-method on the Prescription of Antibiotics in General Practitioners Consulting in the Office</t>
   </si>
   <si>
     <t>Interest of Estrogen Scheduling Before Ovarian Stimulation With Corifollitropin Alfa in Women Older Than 38 Years Old Undergoing in Vitro Fertilization</t>
   </si>
   <si>
-    <t>Impact of the Use of C-reactive Protein in a Micro-method on the Prescription of Antibiotics in General Practitioners Consulting in the Office</t>
+    <t>Patient Experience in Bariatric Surgery: Definition of New Indicators</t>
+  </si>
+  <si>
+    <t>ETUDE PILOTE SUR L’EFFICACITE ET LA TOLERANCE DES INJECTIONS INTRA-VITREENNES DE LUCENTIS (RANIBIZUMABÒ) A LA PHASE INITIALE DES OCCLUSIONS DE LA VEINE CENTRALE DE LA RETINE</t>
   </si>
   <si>
     <t>CHIC-3</t>
@@ -211,43 +235,46 @@
     <t>ARI2</t>
   </si>
   <si>
+    <t>EVAGO</t>
+  </si>
+  <si>
     <t>VIDEOCLIP</t>
   </si>
   <si>
-    <t>EVAGO</t>
+    <t>COVILLE</t>
   </si>
   <si>
     <t>PRETTINEO</t>
   </si>
   <si>
-    <t>COVILLE</t>
+    <t>OSTEOPAL</t>
+  </si>
+  <si>
+    <t>EASYNNEO</t>
   </si>
   <si>
     <t>CHARLIE</t>
   </si>
   <si>
-    <t>EASYNNEO</t>
-  </si>
-  <si>
     <t>BIOWELL</t>
   </si>
   <si>
-    <t>OSTEOPAL</t>
-  </si>
-  <si>
     <t>LONGOMUSSET</t>
   </si>
   <si>
+    <t>PREPACHIR</t>
+  </si>
+  <si>
     <t>RANDOS</t>
   </si>
   <si>
-    <t>PREPACHIR</t>
+    <t>VIP</t>
   </si>
   <si>
     <t>PRESCORI</t>
   </si>
   <si>
-    <t>VIP</t>
+    <t>CALEX</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -256,6 +283,9 @@
     <t>DRUG</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -266,6 +296,9 @@
   </si>
   <si>
     <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>BEHAVIORAL</t>
   </si>
 </sst>
 </file>
@@ -623,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,16 +702,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -691,17 +724,20 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -715,13 +751,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -731,20 +767,17 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
+      <c r="D5" t="s">
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -755,42 +788,42 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -801,16 +834,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -821,42 +854,42 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -867,42 +900,39 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -913,19 +943,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -936,16 +963,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -956,39 +986,42 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -999,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1022,19 +1055,19 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1045,19 +1078,19 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1068,19 +1101,82 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>81</v>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
